--- a/test_data/监控告警.xlsx
+++ b/test_data/监控告警.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8460"/>
+    <workbookView windowWidth="20490" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建监控组" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -42,12 +42,6 @@
     <t>vc-vm</t>
   </si>
   <si>
-    <t>openstack_group</t>
-  </si>
-  <si>
-    <t>op-vm</t>
-  </si>
-  <si>
     <t>test_console,test_portal</t>
   </si>
 </sst>
@@ -56,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,15 +73,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,127 +215,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -231,187 +225,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +434,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -450,30 +459,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -514,17 +499,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +516,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -545,145 +539,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,13 +1042,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
@@ -1101,21 +1095,6 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1134,17 +1113,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="25.875" customWidth="1"/>
@@ -1185,25 +1164,10 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1222,13 +1186,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1252,14 +1216,6 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
